--- a/docs/ST3/ST3_20.08.2024_output.xlsx
+++ b/docs/ST3/ST3_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731671329.9389522</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731671330.4978764</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671329.9389522.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671330.4978764.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>264.49</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>265.1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.6100000000000136</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731671334.0408676</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731671334.8261445</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671334.0408676.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671334.8261445.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>267.35</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>268.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731671335.589468</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731671338.113166</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671335.589468.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671338.113166.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>268.01</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>267.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5099999999999909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731671340.259968</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731671342.5920243</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671340.259968.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731671342.5920243.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>268.58</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>267.69</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.8899999999999864</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -747,95 +787,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731671342.6070206</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731671342.6070206.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731671342.6070206.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>267.69</v>
       </c>
-      <c r="J7" t="n">
-        <v>267.69</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>267.82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1299999999999955</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731671347.4822574</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731671347.9599261</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671347.4822574.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671347.9599261.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>264.49</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>265.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.6100000000000136</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731671350.9732628</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731671351.673128</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671350.9732628.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671351.673128.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>267.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>268.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.25</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731671352.3447964</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731671354.429019</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671352.3447964.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671354.429019.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>268.01</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>267.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5099999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731671356.2612033</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731671358.1072676</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671356.2612033.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671358.1072676.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>268.58</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>267.69</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.8899999999999864</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731671358.1222005</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731671360.5882695</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671358.1222005.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671360.5882695.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>267.69</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>268.36</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.6700000000000159</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731671361.0243208</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731671361.526031</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671361.0243208.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671361.526031.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>267.58</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.88</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731671363.637243</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731671364.465936</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671363.637243.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671364.465936.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>265.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>265.18</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2199999999999704</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731671368.0607607</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731671368.8581371</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671368.0607607.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671368.8581371.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>267.77</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>268.83</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731671369.452548</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731671372.1267972</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671369.452548.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671372.1267972.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>268.83</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>268.05</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.7799999999999727</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731671377.7708888</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731671378.5888374</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671377.7708888.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671378.5888374.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>267.17</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>267.88</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.7099999999999795</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731671379.5845902</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731671380.8238485</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671379.5845902.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671380.8238485.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>126.37</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731671381.7481477</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731671382.2780735</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671381.7481477.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671382.2780735.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>126.11</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.21</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731671383.9538548</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731671384.8157876</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671383.9538548.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671384.8157876.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>126.48</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.68</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731671386.899915</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731671387.783124</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671386.899915.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671387.783124.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.38</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.09</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.289999999999992</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731671393.2032416</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731671393.864051</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671393.2032416.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671393.864051.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.45</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>126.23</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731671394.3028207</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731671395.82412</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671394.3028207.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671395.82412.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>126.32</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.05</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731671396.5761511</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731671397.3804052</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671396.5761511.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671397.3804052.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>126.06</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731671401.2331815</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731671402.231844</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671401.2331815.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671402.231844.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6078.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6087.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-9</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731671409.7813754</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731671410.9660635</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671409.7813754.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671410.9660635.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6184.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6192.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>8</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731671413.244939</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731671414.4070523</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671413.244939.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671414.4070523.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6219.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6201</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-18.5</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731671417.495167</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731671418.0759473</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671417.495167.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671418.0759473.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>485.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>484.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731671419.296357</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731671419.5825553</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671419.296357.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671419.5825553.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>483.05</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>481.95</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731671420.252484</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731671421.008607</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671420.252484.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671421.008607.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>481.05</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>481.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731671423.7050924</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731671424.1300478</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671423.7050924.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671424.1300478.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>484.75</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>483.85</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731671426.6356878</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731671429.8707614</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671426.6356878.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671429.8707614.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>487.35</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>487.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5999999999999659</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731671433.362676</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731671434.8872252</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671433.362676.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671434.8872252.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>486</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>486.1</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731671435.6999366</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731671436.0759299</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671435.6999366.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671436.0759299.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>213.35</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>211.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.849999999999994</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731671437.3940122</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731671438.63341</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671437.3940122.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671438.63341.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>210.38</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>211.42</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.039999999999992</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731671442.163032</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731671444.357534</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671442.163032.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671444.357534.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>213.67</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>213.12</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.5499999999999829</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731671446.142059</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731671446.9148843</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671446.142059.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671446.9148843.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>211.96</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>212.12</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731671449.5657787</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731671450.940355</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671449.5657787.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671450.940355.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>212.38</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>212.35</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731671456.3413584</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731671456.868933</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671456.3413584.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671456.868933.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1018</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1019.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731671457.9379141</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731671458.925906</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671457.9379141.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671458.925906.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1016.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1018.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-2</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731671458.9418573</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731671461.604237</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671458.9418573.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671461.604237.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1018.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1027.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>8.799999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731671462.1558983</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731671462.5309765</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671462.1558983.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671462.5309765.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1024.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1030.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>5.600000000000136</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731671462.8344457</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731671464.1246817</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671462.8344457.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671464.1246817.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1029.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1028.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731671467.8167994</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731671468.8459747</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671467.8167994.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671468.8459747.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1021</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1019.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731671472.6719584</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731671472.9951506</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671472.6719584.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671472.9951506.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.126</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.139</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.0129999999999999</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731671479.3526661</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731671480.1806037</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671479.3526661.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671480.1806037.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.179</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.209</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.02999999999999936</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2819,51 +3099,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731671489.3622682</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731671489.7250094</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671489.3622682.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671489.7250094.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>125.44</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>124.62</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -2871,51 +3157,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731671490.065136</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731671490.5740368</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671490.065136.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671490.5740368.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>124.88</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>124.22</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2923,51 +3215,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731671490.9969265</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731671492.346975</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671490.9969265.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671492.346975.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>124.48</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>124.86</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2975,51 +3273,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731671496.2776375</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731671497.4667444</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671496.2776375.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671497.4667444.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>125.42</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>125.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3027,51 +3331,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731671500.0582335</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731671500.9138796</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671500.0582335.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671500.9138796.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>124.84</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>124.68</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3079,51 +3389,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731671505.6993406</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731671506.3064313</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671505.6993406.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671506.3064313.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.42</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>124.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3131,51 +3447,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731671506.8887923</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731671507.1028361</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671506.8887923.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671507.1028361.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>158.2</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>158.14</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3183,51 +3505,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731671507.3832462</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731671507.9000907</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671507.3832462.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671507.9000907.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>158.08</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>157.52</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -3235,51 +3563,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731671508.6699932</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731671509.123962</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671508.6699932.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671509.123962.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>157.02</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>156</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>1.02000000000001</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -3287,51 +3621,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731671513.7652042</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731671513.9326992</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671513.7652042.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671513.9326992.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>157.82</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>158.54</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3339,51 +3679,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731671514.2968729</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731671514.7281694</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671514.2968729.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671514.7281694.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>158.26</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>159</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3391,51 +3737,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731671521.7928605</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731671523.9863663</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671521.7928605.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671523.9863663.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>157.62</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>157.3</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3443,51 +3795,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731671525.3414233</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731671525.7118587</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671525.3414233.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671525.7118587.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>48.18</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>47.825</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.3549999999999969</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -3495,51 +3853,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731671527.1500638</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731671528.907343</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671527.1500638.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671528.907343.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>47.635</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>47.34</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2949999999999946</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -3547,51 +3911,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731671529.6428735</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731671530.397827</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671529.6428735.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671530.397827.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>47.35</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>47.37</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3599,51 +3969,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731671535.539847</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731671535.844817</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671535.539847.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671535.844817.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>47.63</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>47.515</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.115000000000002</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3651,51 +4027,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731671540.880681</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731671541.376753</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671540.880681.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671541.376753.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>47.005</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>47.115</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3703,51 +4085,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731671542.276964</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731671542.6433158</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671542.276964.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671542.6433158.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1341.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1345</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3755,51 +4143,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731671550.2566824</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731671553.6856148</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671550.2566824.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671553.6856148.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1349</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1349.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3807,95 +4201,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731671559.1480734</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731671559.1480734.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731671559.1480734.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1344.6</v>
       </c>
-      <c r="J66" t="n">
-        <v>1344.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1342.4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.199999999999818</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731671560.5876467</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731671560.9036827</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671560.5876467.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671560.9036827.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>56.99</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>56.92</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3903,51 +4309,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731671563.0730753</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731671563.969119</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671563.0730753.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671563.969119.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>56.02</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>55.93</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3955,51 +4367,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731671575.836275</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731671577.1848269</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671575.836275.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671577.1848269.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>56.08</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>55.86</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4007,51 +4425,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731671578.8147967</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731671579.596697</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671578.8147967.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671579.596697.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>99.31999999999999</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.2799999999999869</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -4059,51 +4483,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731671586.5383034</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731671587.6718762</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671586.5383034.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671587.6718762.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>100.16</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>100.11</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4111,51 +4541,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731671594.0438542</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731671594.2584937</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671594.0438542.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671594.2584937.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>99.81</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>99.47</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4163,95 +4599,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731671596.1503656</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731671596.1503656.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731671596.1503656.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>99.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>100.07</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.5699999999999932</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731671598.2872367</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731671598.8359232</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671598.2872367.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671598.8359232.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>51.85</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>51.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.25</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -4259,51 +4707,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731671598.9890742</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731671599.0911214</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671598.9890742.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671599.0911214.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>51.76</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>51.51</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.25</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -4311,51 +4765,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731671602.2648768</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731671602.4481738</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671602.2648768.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671602.4481738.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>52.85</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>53.05</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -4363,51 +4823,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731671603.4254591</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731671604.4403055</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671603.4254591.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671604.4403055.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>53.52</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>53.56</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4415,51 +4881,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731671606.0424693</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731671608.670028</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671606.0424693.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671608.670028.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>53.67</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>53.49</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -4467,51 +4939,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731671612.4159398</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731671613.042869</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671612.4159398.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671613.042869.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>53.43</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>53.46</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4519,95 +4997,107 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731671614.522513</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731671614.522513.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731671614.522513.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>53.82</v>
       </c>
-      <c r="J80" t="n">
-        <v>53.82</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>53.89</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731671617.0319524</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731671619.4891016</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671617.0319524.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671619.4891016.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>148.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>149.96</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-1.659999999999997</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -4615,51 +5105,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731671621.7126057</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731671622.9979467</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671621.7126057.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671622.9979467.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>150.68</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>150.2</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.4800000000000182</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -4667,95 +5163,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731671628.536589</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731671628.536589.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731671628.536589.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>150.58</v>
       </c>
-      <c r="J83" t="n">
-        <v>150.58</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>150.28</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731671632.728793</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731671634.3640664</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731671632.728793.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731671634.3640664.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.2958</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.2989</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.003099999999999992</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-1.05</v>
       </c>
     </row>
@@ -4763,95 +5271,107 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731671639.4197063</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731671639.4197063.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731671639.4197063.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.3035</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.3035</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.3025</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731671641.7187529</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731671642.6448133</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671641.7187529.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671642.6448133.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.333</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>19.162</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1709999999999994</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -4859,51 +5379,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731671643.066442</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731671644.2707825</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671643.066442.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671644.2707825.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.229</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.192</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.03699999999999903</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4911,51 +5437,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731671647.383323</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731671648.165803</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671647.383323.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671648.165803.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.303</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.466</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1630000000000003</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -4963,51 +5495,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731671648.3772833</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731671649.2362783</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671648.3772833.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671649.2362783.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.408</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.41</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5015,51 +5553,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731671654.5336874</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731671656.6801496</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671654.5336874.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671656.6801496.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.409</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>19.339</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -5067,51 +5611,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731671656.6961076</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731671657.1393554</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671656.6961076.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671657.1393554.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>19.339</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>19.324</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.01499999999999702</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5119,51 +5669,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731671657.7463386</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731671658.2813768</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671657.7463386.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671658.2813768.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>19.349</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>19.354</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5171,51 +5727,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731671659.417286</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731671660.929084</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671659.417286.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671660.929084.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>667.1</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>662.15</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-4.950000000000045</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -5223,51 +5785,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731671661.4365466</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731671661.9246328</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671661.4365466.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671661.9246328.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>661.8</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>662.6</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.8000000000000682</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -5275,51 +5843,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731671666.5012283</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731671668.2473452</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671666.5012283.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671668.2473452.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>666.4</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>664.1</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-2.299999999999955</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -5327,51 +5901,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731671671.6310365</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731671672.0795763</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671671.6310365.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671672.0795763.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>662.35</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>660.35</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5379,51 +5959,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731671672.644318</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731671674.1959364</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671672.644318.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671674.1959364.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>661.45</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>659.85</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5431,51 +6017,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731671675.1711342</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731671676.0334702</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671675.1711342.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671676.0334702.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>141.34</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>139.17</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-2.170000000000016</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-1.54</v>
       </c>
     </row>
@@ -5483,51 +6075,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731671677.0143416</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731671677.7829115</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671677.0143416.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671677.7829115.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>138.2</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>138.59</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.3900000000000148</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -5535,51 +6133,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731671686.6983943</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731671688.6284475</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671686.6983943.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671688.6284475.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>140.53</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>139.3</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-1.22999999999999</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -5587,51 +6191,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731671688.6454296</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731671689.0333388</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671688.6454296.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671689.0333388.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>139.3</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>138.75</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -5639,51 +6249,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731671690.2086074</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731671690.4419968</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671690.2086074.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671690.4419968.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>137.92</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>137.43</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.4899999999999807</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -5789,19 +6405,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.529999999999994</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07571428571428486</v>
+        <v>0.0857142857142849</v>
       </c>
       <c r="E4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -5943,19 +6559,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7599999999999909</v>
+        <v>-0.8899999999999864</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1519999999999982</v>
+        <v>-0.1779999999999973</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.28</v>
+        <v>-0.33</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6031,19 +6647,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01000000000001933</v>
+        <v>-0.5599999999999739</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002500000000004832</v>
+        <v>-0.1399999999999935</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01000000000000001</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="16">
@@ -6097,19 +6713,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.600000000000136</v>
+        <v>-0.4000000000003183</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8666666666667121</v>
+        <v>-0.1333333333334394</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2</v>
+        <v>-0.03999999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
@@ -6119,19 +6735,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.140000000000015</v>
+        <v>-2.440000000000026</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7133333333333383</v>
+        <v>-0.813333333333342</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.44</v>
+        <v>-1.64</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.48</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="20">
@@ -6141,19 +6757,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003099999999999992</v>
+        <v>-0.004099999999999993</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001549999999999996</v>
+        <v>-0.002049999999999996</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.05</v>
+        <v>-1.38</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="21">
